--- a/ts.xlsx
+++ b/ts.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\Desktop\BuyingRSREU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>RecNo</t>
   </si>
@@ -183,18 +183,38 @@
   </si>
   <si>
     <t>1914</t>
+  </si>
+  <si>
+    <t>Васяткин</t>
+  </si>
+  <si>
+    <t>Арсентьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> род. 1903 г., рядовой, пропал без вести.</t>
+  </si>
+  <si>
+    <t>1903</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,33 +258,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,18 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="4" width="8.85546875" style="5"/>
+    <col min="5" max="5" width="137.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>134580</v>
       </c>
@@ -663,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>134581</v>
       </c>
@@ -707,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>134582</v>
       </c>
@@ -753,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>134583</v>
       </c>
@@ -797,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>134584</v>
       </c>
@@ -841,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>134585</v>
       </c>
@@ -885,7 +923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>134586</v>
       </c>
@@ -929,6 +967,71 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>135932</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="15">
+        <v>8</v>
+      </c>
+      <c r="W9" s="16">
+        <v>25</v>
+      </c>
+      <c r="X9" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
